--- a/biology/Mycologie/Baorangia/Baorangia.xlsx
+++ b/biology/Mycologie/Baorangia/Baorangia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Baorangia est un genre de champignons de la famille des Boletaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon MycoBank                                            (18 novembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon MycoBank                                            (18 novembre 2023) :
 Baorangia alexandri Svetash., Simonini &amp; Vizzini, 2018
 Baorangia bicolor (Kuntze) G. Wu, Halling &amp; Zhu L. Yang, 2015
 Baorangia duplicatopora N.K. Zeng, Xu Zhang &amp; S. Jiang, 2021
@@ -548,7 +562,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Gang Wu, Kuan Zhao, Yan-Chun Li, Nian-Kai Zeng, Bang Feng, Roy E. Halling et Zhu L. Yang, « Four new genera of the fungal family Boletaceae », Fungal Diversity, Springer Science+Business Media,‎ 22 février 2015 (ISSN 1560-2745 et 1878-9129, DOI 10.1007/S13225-015-0322-0)</t>
         </is>
